--- a/data/trans_orig/P44A$analisis-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P44A$analisis-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>4145</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8993</v>
+        <v>8868</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2163832733102028</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05460618393414699</v>
+        <v>0.05387462348039829</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4694934249394587</v>
+        <v>0.4629705051565534</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>4534</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1189</v>
+        <v>1162</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8260</v>
+        <v>9215</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.339038458581739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08889129135947618</v>
+        <v>0.08690155811754038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6175930958776366</v>
+        <v>0.6890198728453155</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -785,19 +785,19 @@
         <v>8679</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4175</v>
+        <v>4057</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14852</v>
+        <v>15523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2668130790281128</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.128361929923187</v>
+        <v>0.124723732026538</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.456577242064165</v>
+        <v>0.4772038572320522</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>9654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4592</v>
+        <v>4391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14666</v>
+        <v>14730</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.504002703506409</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2397615415679524</v>
+        <v>0.2292468603775025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.765695273812089</v>
+        <v>0.7690085699477239</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -835,19 +835,19 @@
         <v>6172</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2743</v>
+        <v>2817</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9940</v>
+        <v>9928</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4614684066104137</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2050825354390594</v>
+        <v>0.2106658053489544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7432185593646471</v>
+        <v>0.7423347461152953</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -856,19 +856,19 @@
         <v>15826</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9009</v>
+        <v>9251</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22034</v>
+        <v>22466</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4865146835416246</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2769563863129965</v>
+        <v>0.2843879982688564</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6773677464309378</v>
+        <v>0.6906343522705144</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>5339</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1765</v>
+        <v>1895</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11315</v>
+        <v>11488</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2787355346393498</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09213375212915635</v>
+        <v>0.09894017977724701</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5907256654455642</v>
+        <v>0.5997476858140737</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -906,19 +906,19 @@
         <v>4824</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1192</v>
+        <v>1734</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9514</v>
+        <v>8924</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3606727208644415</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08913554342668564</v>
+        <v>0.129630861427774</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7114173631863681</v>
+        <v>0.6672280563450121</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -927,19 +927,19 @@
         <v>10163</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4927</v>
+        <v>5026</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17529</v>
+        <v>17336</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3124240931234932</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1514495469520808</v>
+        <v>0.1545151168889671</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5388587661673123</v>
+        <v>0.5329250032228037</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>5198</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1919</v>
+        <v>1948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10515</v>
+        <v>10294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.271374002471563</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.100187802485042</v>
+        <v>0.1016836664634348</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.548959923236007</v>
+        <v>0.5374348172622362</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5296</v>
+        <v>5389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1428003833635334</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3959758089561797</v>
+        <v>0.4029784666839368</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -998,19 +998,19 @@
         <v>7108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2957</v>
+        <v>2846</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13329</v>
+        <v>12555</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2185108265877858</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0909112290526576</v>
+        <v>0.08747637278905633</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.409767603007396</v>
+        <v>0.3859692031912443</v>
       </c>
     </row>
     <row r="8">
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6430</v>
+        <v>6134</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1280719949813416</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3962323404133192</v>
+        <v>0.3779621372054217</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1052,19 +1052,19 @@
         <v>5065</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1166</v>
+        <v>1844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7400</v>
+        <v>7412</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6096226799507254</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1402896105162458</v>
+        <v>0.2219447221832563</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8907623566325514</v>
+        <v>0.8922093679573668</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1073,19 +1073,19 @@
         <v>7143</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2939</v>
+        <v>2972</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12140</v>
+        <v>13050</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2911203360276801</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1197769034253494</v>
+        <v>0.1211417682268845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4947722702148225</v>
+        <v>0.5318577269251598</v>
       </c>
     </row>
     <row r="9">
@@ -1105,16 +1105,16 @@
         <v>5017</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13085</v>
+        <v>13139</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5563985777659594</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3091583580755631</v>
+        <v>0.3091207414846711</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.806270891607765</v>
+        <v>0.8096029710495515</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5857</v>
+        <v>5957</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2561357702963694</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7050418048292798</v>
+        <v>0.7169648814474634</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1144,19 +1144,19 @@
         <v>11158</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5942</v>
+        <v>6471</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16614</v>
+        <v>16510</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4547325347845327</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2421456597193131</v>
+        <v>0.2637077399337382</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6770972800475801</v>
+        <v>0.6728494350709397</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>4161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8685</v>
+        <v>8660</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2564030322232295</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06533359969984394</v>
+        <v>0.06427678018014733</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5351301855424694</v>
+        <v>0.53362314357662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1194,7 +1194,7 @@
         <v>6126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2349</v>
+        <v>2863</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>8308</v>
@@ -1203,7 +1203,7 @@
         <v>0.7373106008232954</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2827518618791066</v>
+        <v>0.3446236528803699</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1215,19 +1215,19 @@
         <v>10287</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5388</v>
+        <v>5187</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15481</v>
+        <v>15356</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4192336203717112</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2195802454254479</v>
+        <v>0.2113969233608117</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6309240736582841</v>
+        <v>0.6258435736696366</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5996</v>
+        <v>5669</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1246385087951348</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3694880287042424</v>
+        <v>0.3493400747623892</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6380</v>
+        <v>6108</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08243713161128084</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2600031691196292</v>
+        <v>0.2489486051963804</v>
       </c>
     </row>
     <row r="12">
@@ -1311,19 +1311,19 @@
         <v>10310</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4942</v>
+        <v>5027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16763</v>
+        <v>16891</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.352023284000383</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1687321637517033</v>
+        <v>0.1716286708060405</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5723489402649046</v>
+        <v>0.5767270928981941</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5023</v>
+        <v>5033</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09874327637940622</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4607288684642267</v>
+        <v>0.4616921141667641</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1353,19 +1353,19 @@
         <v>11386</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5721</v>
+        <v>5859</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18164</v>
+        <v>19742</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2833156862655229</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1423591583353057</v>
+        <v>0.1457879227790474</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4519472442788985</v>
+        <v>0.4912192913854955</v>
       </c>
     </row>
     <row r="13">
@@ -1382,19 +1382,19 @@
         <v>21894</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15779</v>
+        <v>15629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26299</v>
+        <v>26210</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7475273813120116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5387446310329282</v>
+        <v>0.5336281724260045</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8979516597118097</v>
+        <v>0.8949140340478502</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1403,19 +1403,19 @@
         <v>6006</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1996</v>
+        <v>2608</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9374</v>
+        <v>9768</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5509309954509782</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1830571523429727</v>
+        <v>0.2392647161163294</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8598761298432002</v>
+        <v>0.8959384745207941</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1424,19 +1424,19 @@
         <v>27900</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20653</v>
+        <v>20596</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34008</v>
+        <v>33913</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6941964235205033</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5138829058205642</v>
+        <v>0.5124689178308187</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8461890847275653</v>
+        <v>0.8438122090741008</v>
       </c>
     </row>
     <row r="14">
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6266</v>
+        <v>6176</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07078551659922262</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2139457042168093</v>
+        <v>0.2108560930302655</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1474,19 +1474,19 @@
         <v>5872</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2033</v>
+        <v>1989</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9720</v>
+        <v>9281</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5386139600055103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1865226895601733</v>
+        <v>0.1824423739507759</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8916094735293243</v>
+        <v>0.8513573873458937</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1495,19 +1495,19 @@
         <v>7945</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3274</v>
+        <v>3397</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14883</v>
+        <v>14793</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.197693948103166</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08146881874519646</v>
+        <v>0.08452675387228137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.370310086855024</v>
+        <v>0.3680885926170576</v>
       </c>
     </row>
     <row r="15">
@@ -1524,19 +1524,19 @@
         <v>10378</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5344</v>
+        <v>5798</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16743</v>
+        <v>16880</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3543585491372871</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1824512334837278</v>
+        <v>0.1979786505499705</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5716739875290174</v>
+        <v>0.5763317638305174</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5023</v>
+        <v>5033</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09874327637940622</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4607288684642267</v>
+        <v>0.4616921141667641</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -1566,19 +1566,19 @@
         <v>11455</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6162</v>
+        <v>6059</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>19482</v>
+        <v>18410</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.285017460985486</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1533109670073979</v>
+        <v>0.1507468343059326</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4847369863643989</v>
+        <v>0.4580769426103639</v>
       </c>
     </row>
     <row r="16">
@@ -1599,19 +1599,19 @@
         <v>22498</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15467</v>
+        <v>16233</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27952</v>
+        <v>28060</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6210749713623639</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.426966330084486</v>
+        <v>0.4481133170642232</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7716223729525988</v>
+        <v>0.7746148437457555</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1620,19 +1620,19 @@
         <v>7345</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3240</v>
+        <v>4119</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11266</v>
+        <v>11413</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5070071986686233</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2236847926096479</v>
+        <v>0.2843520122116842</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7776912489855836</v>
+        <v>0.7878353276689944</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1641,19 +1641,19 @@
         <v>29843</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22595</v>
+        <v>22139</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36838</v>
+        <v>36781</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5884909767303829</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4455654183324567</v>
+        <v>0.4365627398432412</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7264392277833376</v>
+        <v>0.7253023011561491</v>
       </c>
     </row>
     <row r="17">
@@ -1670,19 +1670,19 @@
         <v>20167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13249</v>
+        <v>13656</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26197</v>
+        <v>26011</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5567117880165863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3657464862190194</v>
+        <v>0.376989461268492</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7231831160671871</v>
+        <v>0.7180452637527153</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1691,19 +1691,19 @@
         <v>10331</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6196</v>
+        <v>6164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13429</v>
+        <v>13420</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.713140997214018</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4277126173689151</v>
+        <v>0.4255108467770563</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9269991578007896</v>
+        <v>0.926393067787614</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -1712,19 +1712,19 @@
         <v>30497</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23435</v>
+        <v>22770</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37087</v>
+        <v>37914</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6013965258036498</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4621244022838157</v>
+        <v>0.4490127872010558</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7313314572448898</v>
+        <v>0.747652133917497</v>
       </c>
     </row>
     <row r="18">
@@ -1741,19 +1741,19 @@
         <v>4195</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1032</v>
+        <v>1120</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8760</v>
+        <v>9629</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1158174112672779</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02848417489202491</v>
+        <v>0.03091830866389693</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2418241248176283</v>
+        <v>0.2658026592530205</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1762,19 +1762,19 @@
         <v>3096</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7208</v>
+        <v>7192</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2137451537472599</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06705377721794022</v>
+        <v>0.06665432425405302</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4976089129252212</v>
+        <v>0.496475911705919</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1783,19 +1783,19 @@
         <v>7292</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3147</v>
+        <v>3135</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13724</v>
+        <v>14560</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1437909305176003</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06206391762027298</v>
+        <v>0.06182297952722567</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.270629102630554</v>
+        <v>0.2871253159472759</v>
       </c>
     </row>
     <row r="19">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7145</v>
+        <v>7184</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05653673070032957</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1972488897543957</v>
+        <v>0.1983066007031506</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4423</v>
+        <v>5456</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07644324286253325</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.305328383771083</v>
+        <v>0.3766527248004355</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1854,19 +1854,19 @@
         <v>3155</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8582</v>
+        <v>8310</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06222311932804671</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02007522460848641</v>
+        <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1692288032201484</v>
+        <v>0.1638706225497805</v>
       </c>
     </row>
     <row r="20">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5190</v>
+        <v>5264</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2407086307951598</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6128047597246854</v>
+        <v>0.6215229819046552</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1908,19 +1908,19 @@
         <v>5431</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2127</v>
+        <v>2079</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11165</v>
+        <v>11224</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2016714000450749</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0789771862941951</v>
+        <v>0.07721044724191489</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4145998278602326</v>
+        <v>0.4167977970698309</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1929,19 +1929,19 @@
         <v>7470</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13540</v>
+        <v>13428</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2110118923812965</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09236280360972562</v>
+        <v>0.09224365521297075</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3824919451656758</v>
+        <v>0.3793185921911721</v>
       </c>
     </row>
     <row r="21">
@@ -1958,7 +1958,7 @@
         <v>6346</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2745</v>
+        <v>3134</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>8470</v>
@@ -1967,7 +1967,7 @@
         <v>0.7492892081607194</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3240729081098121</v>
+        <v>0.3699537980664295</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>1</v>
@@ -1979,19 +1979,19 @@
         <v>19063</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13631</v>
+        <v>13193</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23289</v>
+        <v>23638</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7078544576792223</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5061640978677751</v>
+        <v>0.4898922654822563</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8648055668168542</v>
+        <v>0.8777459583883871</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>23</v>
@@ -2000,19 +2000,19 @@
         <v>25409</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19120</v>
+        <v>19776</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30279</v>
+        <v>30944</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7177686078863252</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5401129963576489</v>
+        <v>0.5586334271505626</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8553451254201808</v>
+        <v>0.8741294323989827</v>
       </c>
     </row>
     <row r="22">
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5725</v>
+        <v>5336</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2507107918392806</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6759270918902003</v>
+        <v>0.6300462019335703</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2050,19 +2050,19 @@
         <v>4780</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1350</v>
+        <v>1160</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10716</v>
+        <v>9712</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1775020291452198</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05012093202969879</v>
+        <v>0.04308275631592079</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3979032000069249</v>
+        <v>0.3606285121891482</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2071,19 +2071,19 @@
         <v>6904</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2614</v>
+        <v>3210</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12948</v>
+        <v>12980</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1950187913168463</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07385372051278065</v>
+        <v>0.090668743696919</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3657745780476705</v>
+        <v>0.3666737777253883</v>
       </c>
     </row>
     <row r="23">
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6210</v>
+        <v>6105</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07267578092539148</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.230610940842897</v>
+        <v>0.2267032081708655</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5841</v>
+        <v>6066</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0552865460406638</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1650086346342397</v>
+        <v>0.1713421101138738</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>10321</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5299</v>
+        <v>5148</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16075</v>
+        <v>16308</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.322937776430531</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1658062256085814</v>
+        <v>0.1610770232229627</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5029750152928341</v>
+        <v>0.5102908588093248</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -2197,19 +2197,19 @@
         <v>10321</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5299</v>
+        <v>5148</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16075</v>
+        <v>16308</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.322937776430531</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1658062256085814</v>
+        <v>0.1610770232229627</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5029750152928341</v>
+        <v>0.5102908588093248</v>
       </c>
     </row>
     <row r="25">
@@ -2235,19 +2235,19 @@
         <v>21437</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15355</v>
+        <v>15779</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26672</v>
+        <v>26510</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6707770251230134</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4804632718409672</v>
+        <v>0.4937288927319146</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8345649643851274</v>
+        <v>0.8295015675780986</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -2256,19 +2256,19 @@
         <v>21437</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15355</v>
+        <v>15779</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26672</v>
+        <v>26510</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6707770251230134</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4804632718409672</v>
+        <v>0.4937288927319146</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8345649643851274</v>
+        <v>0.8295015675780986</v>
       </c>
     </row>
     <row r="26">
@@ -2294,19 +2294,19 @@
         <v>12586</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7187</v>
+        <v>7477</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18186</v>
+        <v>19172</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3938020941037266</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2248823997658174</v>
+        <v>0.2339439780736812</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5690512782186892</v>
+        <v>0.5998835185837801</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2315,19 +2315,19 @@
         <v>12586</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7187</v>
+        <v>7477</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18186</v>
+        <v>19172</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3938020941037266</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2248823997658174</v>
+        <v>0.2339439780736812</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5690512782186892</v>
+        <v>0.5998835185837801</v>
       </c>
     </row>
     <row r="27">
@@ -2353,19 +2353,19 @@
         <v>3101</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7503</v>
+        <v>8427</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09702646821456426</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03053201910685221</v>
+        <v>0.03111218217151716</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2347757764652546</v>
+        <v>0.2636968184173117</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -2374,19 +2374,19 @@
         <v>3101</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7503</v>
+        <v>8427</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09702646821456426</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03053201910685221</v>
+        <v>0.03111218217151716</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2347757764652546</v>
+        <v>0.2636968184173117</v>
       </c>
     </row>
     <row r="28">
@@ -2407,19 +2407,19 @@
         <v>41070</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3755323822530451</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -2428,19 +2428,19 @@
         <v>33772</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>24297</v>
+        <v>25314</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>44091</v>
+        <v>44216</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.318724394281415</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.229307111829008</v>
+        <v>0.238905622468849</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4161132488025425</v>
+        <v>0.4172955459679225</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>69</v>
@@ -2449,19 +2449,19 @@
         <v>74842</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>60817</v>
+        <v>60746</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>89377</v>
+        <v>89691</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3475779032710498</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2824417553684336</v>
+        <v>0.2821128884564602</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.415077923380692</v>
+        <v>0.4165373372212711</v>
       </c>
     </row>
     <row r="29">
@@ -2478,19 +2478,19 @@
         <v>67090</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6134476704769855</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -2499,19 +2499,19 @@
         <v>65136</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54150</v>
+        <v>53273</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>75263</v>
+        <v>74966</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6147311947463027</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5110484730640019</v>
+        <v>0.5027659445789593</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7102990419066635</v>
+        <v>0.7075038860143167</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>117</v>
@@ -2520,19 +2520,19 @@
         <v>132227</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>117078</v>
+        <v>117470</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>146221</v>
+        <v>147257</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6140792762333349</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5437281141536573</v>
+        <v>0.545545634658509</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6790691818630638</v>
+        <v>0.6838835669200186</v>
       </c>
     </row>
     <row r="30">
@@ -2549,19 +2549,19 @@
         <v>17892</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1636001922329219</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>33</v>
@@ -2570,19 +2570,19 @@
         <v>37283</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26937</v>
+        <v>27533</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>47572</v>
+        <v>48469</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3518643197802621</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2542172724532009</v>
+        <v>0.2598447784931197</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4489695961249733</v>
+        <v>0.4574350027047826</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>49</v>
@@ -2591,19 +2591,19 @@
         <v>55175</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>43866</v>
+        <v>42417</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>68495</v>
+        <v>68165</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2562425438545646</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2037177600242693</v>
+        <v>0.1969883502069903</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3180993341903351</v>
+        <v>0.3165698848309142</v>
       </c>
     </row>
     <row r="31">
@@ -2620,19 +2620,19 @@
         <v>19647</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12915</v>
+        <v>11880</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30203</v>
+        <v>29388</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1796449615522855</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1180859352093026</v>
+        <v>0.1086303365816594</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2761650696482835</v>
+        <v>0.2687090128865383</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -2641,19 +2641,19 @@
         <v>9152</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4212</v>
+        <v>4117</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15763</v>
+        <v>16005</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0863704438679033</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03975079585916152</v>
+        <v>0.03885153621050397</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1487604165327919</v>
+        <v>0.1510509548888736</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -2662,19 +2662,19 @@
         <v>28799</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19450</v>
+        <v>19678</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40812</v>
+        <v>41422</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1337457731236095</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09032717546933169</v>
+        <v>0.09138691944694029</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.189535308934284</v>
+        <v>0.1923697199292184</v>
       </c>
     </row>
     <row r="32">
@@ -2937,19 +2937,19 @@
         <v>8655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4080</v>
+        <v>4141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14680</v>
+        <v>14616</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2797565605023126</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1318834119824875</v>
+        <v>0.1338569388422086</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4745025541616315</v>
+        <v>0.4724377766301212</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7150</v>
+        <v>7269</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2574003392773377</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.64480999326533</v>
+        <v>0.6554711361850403</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2979,19 +2979,19 @@
         <v>11509</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5902</v>
+        <v>6321</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18839</v>
+        <v>18319</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2738577907831711</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1404255223240841</v>
+        <v>0.1504161519934357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4482808887192283</v>
+        <v>0.4358874056883129</v>
       </c>
     </row>
     <row r="5">
@@ -3008,19 +3008,19 @@
         <v>15738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9720</v>
+        <v>9492</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21483</v>
+        <v>21934</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5086964204628425</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3141821950778125</v>
+        <v>0.3068128334615829</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6944213057469103</v>
+        <v>0.7089888376130623</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -3029,19 +3029,19 @@
         <v>5125</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1472</v>
+        <v>1364</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8909</v>
+        <v>9099</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4622075171781211</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1327516380779148</v>
+        <v>0.1229903792503293</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8034281176563218</v>
+        <v>0.820527604046833</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -3050,19 +3050,19 @@
         <v>20863</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13907</v>
+        <v>13958</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28114</v>
+        <v>28006</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4964301554168667</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3309160616566853</v>
+        <v>0.3321276865352737</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6689639789410741</v>
+        <v>0.6663955400332773</v>
       </c>
     </row>
     <row r="6">
@@ -3079,19 +3079,19 @@
         <v>10141</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4934</v>
+        <v>4973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16373</v>
+        <v>17368</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3277811716266838</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1594994092493914</v>
+        <v>0.160756302299035</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5292298684107063</v>
+        <v>0.5614015450966269</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -3100,19 +3100,19 @@
         <v>4929</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1708</v>
+        <v>1194</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8893</v>
+        <v>8850</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4444588497620428</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.154006634624646</v>
+        <v>0.1076826178852978</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8019799474928255</v>
+        <v>0.7980988874164944</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -3121,19 +3121,19 @@
         <v>15069</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8696</v>
+        <v>8798</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22033</v>
+        <v>22173</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3585669984333948</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2069120052912413</v>
+        <v>0.2093524898200213</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5242695125645489</v>
+        <v>0.5276098946624744</v>
       </c>
     </row>
     <row r="7">
@@ -3150,19 +3150,19 @@
         <v>4665</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1639</v>
+        <v>1811</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11366</v>
+        <v>10533</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1507860073441529</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05297680328913413</v>
+        <v>0.05852987398586762</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3673924755068823</v>
+        <v>0.3404804579549729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3184,19 +3184,19 @@
         <v>4665</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1542</v>
+        <v>1146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11715</v>
+        <v>10664</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1110005746790699</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03669448589849092</v>
+        <v>0.0272724740137491</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2787611270439107</v>
+        <v>0.2537373336748986</v>
       </c>
     </row>
     <row r="8">
@@ -3217,19 +3217,19 @@
         <v>14977</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9585</v>
+        <v>9389</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20083</v>
+        <v>20239</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5558019104092556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3557060594530663</v>
+        <v>0.3484185819799679</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7452914905765786</v>
+        <v>0.751083550169817</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3251,19 +3251,19 @@
         <v>14977</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9457</v>
+        <v>9175</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21146</v>
+        <v>21242</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4642208360115882</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2931104213297115</v>
+        <v>0.2843757217227076</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6554364073832782</v>
+        <v>0.6584017873451784</v>
       </c>
     </row>
     <row r="9">
@@ -3280,19 +3280,19 @@
         <v>7403</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3303</v>
+        <v>3554</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13140</v>
+        <v>12992</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2747390794089372</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1225921606773129</v>
+        <v>0.1318749765602339</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4876357906716883</v>
+        <v>0.4821271967594538</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -3322,19 +3322,19 @@
         <v>10696</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6012</v>
+        <v>5857</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16490</v>
+        <v>16103</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3315128180846348</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1863524683451012</v>
+        <v>0.1815324355912965</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.51110345581511</v>
+        <v>0.4991235426990321</v>
       </c>
     </row>
     <row r="10">
@@ -3351,19 +3351,19 @@
         <v>7478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3238</v>
+        <v>3560</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14006</v>
+        <v>14617</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2775137238282893</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1201448950971652</v>
+        <v>0.1321038957369606</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.519761612814942</v>
+        <v>0.5424487052600098</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3393,19 +3393,19 @@
         <v>9502</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4738</v>
+        <v>5029</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15823</v>
+        <v>16789</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2945165745635296</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1468514066560697</v>
+        <v>0.1558817550731594</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4904400057518706</v>
+        <v>0.5203936677304116</v>
       </c>
     </row>
     <row r="11">
@@ -3422,19 +3422,19 @@
         <v>4052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1088</v>
+        <v>1038</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9132</v>
+        <v>8694</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1503618689137114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04037189403346557</v>
+        <v>0.03850586670266636</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3388748257841241</v>
+        <v>0.3226236240770746</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3456,19 +3456,19 @@
         <v>4052</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9515</v>
+        <v>9305</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1255863126486756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03075191577302431</v>
+        <v>0.03160922409650533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.294908766737136</v>
+        <v>0.2884067565130152</v>
       </c>
     </row>
     <row r="12">
@@ -3489,19 +3489,19 @@
         <v>10150</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5453</v>
+        <v>5403</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16548</v>
+        <v>16219</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3475520435040251</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1867028915465891</v>
+        <v>0.1849872267684927</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5666235823912101</v>
+        <v>0.5553671932283488</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4115</v>
+        <v>4698</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1348202074746092</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5595755925463555</v>
+        <v>0.6388286285951414</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -3531,19 +3531,19 @@
         <v>11141</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5992</v>
+        <v>6092</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18131</v>
+        <v>17297</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3047620857706954</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1638931489089059</v>
+        <v>0.1666307441514603</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4959528899146491</v>
+        <v>0.4731279243160805</v>
       </c>
     </row>
     <row r="13">
@@ -3560,19 +3560,19 @@
         <v>15964</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10390</v>
+        <v>10352</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21656</v>
+        <v>21404</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.54660732746239</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3557571892043726</v>
+        <v>0.3544637091267612</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7415048736938238</v>
+        <v>0.732905016353568</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3581,19 +3581,19 @@
         <v>4236</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1065</v>
+        <v>1100</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6344</v>
+        <v>6350</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5760558101167452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1448857334685437</v>
+        <v>0.1495659353962042</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.862710518280413</v>
+        <v>0.8635184455225868</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -3602,19 +3602,19 @@
         <v>20199</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14346</v>
+        <v>13732</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26226</v>
+        <v>26199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5525307442466851</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3924233841387857</v>
+        <v>0.3756198535947576</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.717388527041056</v>
+        <v>0.7166394858406644</v>
       </c>
     </row>
     <row r="14">
@@ -3631,19 +3631,19 @@
         <v>5270</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10679</v>
+        <v>10539</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1804428973253945</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0640863575967638</v>
+        <v>0.06389881659580647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3656473559855895</v>
+        <v>0.3608509432273916</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3652,19 +3652,19 @@
         <v>4154</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2011</v>
+        <v>1040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7354</v>
+        <v>6345</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5648084249470858</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2735187675073418</v>
+        <v>0.1413589115320568</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>1</v>
+        <v>0.8627406527678796</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -3673,19 +3673,19 @@
         <v>9423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4656</v>
+        <v>4651</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15458</v>
+        <v>15384</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2577561240998154</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1273492685808502</v>
+        <v>0.1272197065496676</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4228468874623312</v>
+        <v>0.4208144897963091</v>
       </c>
     </row>
     <row r="15">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6718</v>
+        <v>6776</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0558572710365734</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.230027497495429</v>
+        <v>0.2320167694467365</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7668</v>
+        <v>7531</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04462185695203733</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2097575109350226</v>
+        <v>0.2060058525989202</v>
       </c>
     </row>
     <row r="16">
@@ -3769,19 +3769,19 @@
         <v>14760</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8750</v>
+        <v>9282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21335</v>
+        <v>21835</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.29905442137545</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1772804044267859</v>
+        <v>0.1880601717766904</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.432262492057314</v>
+        <v>0.4423916938194752</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3790,19 +3790,19 @@
         <v>7091</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3229</v>
+        <v>2602</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12589</v>
+        <v>12723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2917710469587086</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1328373006927351</v>
+        <v>0.107041549417159</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5179538077562665</v>
+        <v>0.5234861216708603</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -3811,19 +3811,19 @@
         <v>21852</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14616</v>
+        <v>13947</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30813</v>
+        <v>30217</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2966511936720576</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1984198167358536</v>
+        <v>0.1893384316408644</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4183033172769396</v>
+        <v>0.4102227140592291</v>
       </c>
     </row>
     <row r="17">
@@ -3840,19 +3840,19 @@
         <v>31162</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23850</v>
+        <v>24085</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36912</v>
+        <v>37849</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6313712916216122</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4832335871365392</v>
+        <v>0.4879830544520942</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7478710795916306</v>
+        <v>0.7668661985508497</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -3861,19 +3861,19 @@
         <v>14247</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8504</v>
+        <v>8994</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19173</v>
+        <v>19215</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5861882590637444</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3498796793710647</v>
+        <v>0.3700532365111927</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7888549490866398</v>
+        <v>0.7905587183919071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -3882,19 +3882,19 @@
         <v>45409</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36504</v>
+        <v>37190</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52451</v>
+        <v>53814</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6164626641979338</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4955655132711172</v>
+        <v>0.5048840414324288</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7120591624958149</v>
+        <v>0.7305669576446333</v>
       </c>
     </row>
     <row r="18">
@@ -3911,19 +3911,19 @@
         <v>10600</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5679</v>
+        <v>5843</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17269</v>
+        <v>16958</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2147709240057106</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1150681145267091</v>
+        <v>0.1183874162776254</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3498810558503286</v>
+        <v>0.3435915416082574</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -3932,19 +3932,19 @@
         <v>4344</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1075</v>
+        <v>1037</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9439</v>
+        <v>8926</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1787142568241902</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04421359627229913</v>
+        <v>0.04265680276552625</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3883766477410435</v>
+        <v>0.3672372617950794</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -3953,19 +3953,19 @@
         <v>14944</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9272</v>
+        <v>8950</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23460</v>
+        <v>22545</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2028736389693335</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1258757344446094</v>
+        <v>0.1214959050660119</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3184843475811745</v>
+        <v>0.3060656387817166</v>
       </c>
     </row>
     <row r="19">
@@ -3982,19 +3982,19 @@
         <v>3909</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>995</v>
+        <v>1089</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9074</v>
+        <v>9339</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07920720227199721</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02015079485011301</v>
+        <v>0.02207010959797051</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1838452227865825</v>
+        <v>0.1892262521065433</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -4003,19 +4003,19 @@
         <v>3044</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7526</v>
+        <v>8600</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1252312913453259</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03867886393024604</v>
+        <v>0.03878784821049407</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3096384117139775</v>
+        <v>0.3538563365974375</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -4024,19 +4024,19 @@
         <v>6953</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2958</v>
+        <v>3076</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13084</v>
+        <v>13479</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09439334533642428</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04016168548971746</v>
+        <v>0.04176481017317446</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1776293167198865</v>
+        <v>0.1829910353246879</v>
       </c>
     </row>
     <row r="20">
@@ -4057,19 +4057,19 @@
         <v>9697</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5150</v>
+        <v>5741</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14241</v>
+        <v>14261</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4172453477622016</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2215744323231378</v>
+        <v>0.2470160629311258</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6127342512464026</v>
+        <v>0.6136078305402313</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -4078,19 +4078,19 @@
         <v>13257</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7855</v>
+        <v>7549</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19583</v>
+        <v>18594</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4836199260828585</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2865620866446851</v>
+        <v>0.2754163739470677</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7144223772289074</v>
+        <v>0.6783243799342724</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -4099,19 +4099,19 @@
         <v>22954</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16222</v>
+        <v>16258</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29770</v>
+        <v>30599</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4531646510672254</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3202646937925336</v>
+        <v>0.3209828452476489</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5877339666051753</v>
+        <v>0.6041064218611699</v>
       </c>
     </row>
     <row r="21">
@@ -4128,19 +4128,19 @@
         <v>12437</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7884</v>
+        <v>7354</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16888</v>
+        <v>16173</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5351429123764798</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3392104248395189</v>
+        <v>0.3164195290594101</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7266581240254179</v>
+        <v>0.6958753006878491</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -4149,19 +4149,19 @@
         <v>15018</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9588</v>
+        <v>9127</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20781</v>
+        <v>19990</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5478768153274558</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3497748419240853</v>
+        <v>0.3329789172965055</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7581158400849797</v>
+        <v>0.7292696635291259</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -4170,19 +4170,19 @@
         <v>27455</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19775</v>
+        <v>20344</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>34281</v>
+        <v>34318</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5420339983001171</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3904004857428585</v>
+        <v>0.4016487629515013</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6767907572380035</v>
+        <v>0.6775319356975175</v>
       </c>
     </row>
     <row r="22">
@@ -4199,19 +4199,19 @@
         <v>2936</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7743</v>
+        <v>7303</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1263459873408697</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03991449768237241</v>
+        <v>0.04024685553075297</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3331786784528283</v>
+        <v>0.314232721035912</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -4220,19 +4220,19 @@
         <v>4974</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1830</v>
+        <v>1849</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11211</v>
+        <v>10466</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1814463782776331</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06675232983350639</v>
+        <v>0.06743701066252186</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.409012878095337</v>
+        <v>0.3818353608172603</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -4241,19 +4241,19 @@
         <v>7910</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3158</v>
+        <v>3782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14947</v>
+        <v>15134</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1561641452012721</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06234562150491007</v>
+        <v>0.07467152341948208</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.295085699224194</v>
+        <v>0.2987797696830694</v>
       </c>
     </row>
     <row r="23">
@@ -4270,19 +4270,19 @@
         <v>2817</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7413</v>
+        <v>6978</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1212228508703009</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03776914480015341</v>
+        <v>0.03750157291294102</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3189716785362433</v>
+        <v>0.3002658035380813</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6733</v>
+        <v>7225</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08096396987190453</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2456493153357024</v>
+        <v>0.263575883325599</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -4312,19 +4312,19 @@
         <v>5037</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1757</v>
+        <v>1901</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11136</v>
+        <v>10439</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09943633268985744</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03469583653540764</v>
+        <v>0.03753832766193342</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.219855003464421</v>
+        <v>0.2060922797908168</v>
       </c>
     </row>
     <row r="24">
@@ -4354,19 +4354,19 @@
         <v>14085</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8685</v>
+        <v>8546</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20872</v>
+        <v>21193</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3571015310242548</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2201903336563076</v>
+        <v>0.2166650268120702</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.529173732621383</v>
+        <v>0.5373208437099815</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -4375,19 +4375,19 @@
         <v>14085</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8685</v>
+        <v>8546</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20872</v>
+        <v>21193</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3571015310242548</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2201903336563076</v>
+        <v>0.2166650268120702</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.529173732621383</v>
+        <v>0.5373208437099815</v>
       </c>
     </row>
     <row r="25">
@@ -4413,19 +4413,19 @@
         <v>23221</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15993</v>
+        <v>16535</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29384</v>
+        <v>29494</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5887468357734339</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4054866298806215</v>
+        <v>0.4192342503209319</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7449994917195119</v>
+        <v>0.7477848259803332</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -4434,19 +4434,19 @@
         <v>23221</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15993</v>
+        <v>16535</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29384</v>
+        <v>29494</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5887468357734339</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4054866298806215</v>
+        <v>0.4192342503209319</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7449994917195119</v>
+        <v>0.7477848259803332</v>
       </c>
     </row>
     <row r="26">
@@ -4472,19 +4472,19 @@
         <v>9834</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5058</v>
+        <v>5106</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15896</v>
+        <v>15840</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2493323016600132</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1282468442529124</v>
+        <v>0.1294444494802927</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4030263805140455</v>
+        <v>0.4016081756376687</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -4493,19 +4493,19 @@
         <v>9834</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5058</v>
+        <v>5106</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15896</v>
+        <v>15840</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2493323016600132</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1282468442529124</v>
+        <v>0.1294444494802927</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4030263805140455</v>
+        <v>0.4016081756376687</v>
       </c>
     </row>
     <row r="27">
@@ -4531,19 +4531,19 @@
         <v>4293</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1106</v>
+        <v>999</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9185</v>
+        <v>9372</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1088450516570138</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02804951642568753</v>
+        <v>0.02532888967026047</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2328858080745526</v>
+        <v>0.2376191372767551</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -4552,19 +4552,19 @@
         <v>4293</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1106</v>
+        <v>999</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>9185</v>
+        <v>9372</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1088450516570138</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02804951642568753</v>
+        <v>0.02532888967026047</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2328858080745526</v>
+        <v>0.2376191372767551</v>
       </c>
     </row>
     <row r="28">
@@ -4585,19 +4585,19 @@
         <v>58240</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>47250</v>
+        <v>48049</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>71787</v>
+        <v>71667</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3647133976810025</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2958959896920056</v>
+        <v>0.3008937213192656</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4495511935597863</v>
+        <v>0.448797313038644</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>33</v>
@@ -4606,19 +4606,19 @@
         <v>38278</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27953</v>
+        <v>29078</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>49272</v>
+        <v>49412</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3330980247461495</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2432494849621216</v>
+        <v>0.2530328597774228</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4287686741224669</v>
+        <v>0.4299872722646111</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>91</v>
@@ -4627,19 +4627,19 @@
         <v>96518</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>78968</v>
+        <v>80032</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>112992</v>
+        <v>112840</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3514829226228663</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2875715304575992</v>
+        <v>0.291447480459953</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4114766958977566</v>
+        <v>0.4109216746879998</v>
       </c>
     </row>
     <row r="29">
@@ -4656,19 +4656,19 @@
         <v>82704</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>69344</v>
+        <v>70837</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>94686</v>
+        <v>95528</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.517915093555665</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.434252118432943</v>
+        <v>0.4436016590888513</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.592952418997872</v>
+        <v>0.5982211959955898</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>55</v>
@@ -4677,19 +4677,19 @@
         <v>65140</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>53969</v>
+        <v>53273</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>76598</v>
+        <v>76458</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5668479280948931</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4696395259230024</v>
+        <v>0.463579759998791</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6665569095019255</v>
+        <v>0.6653415545257679</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>136</v>
@@ -4698,19 +4698,19 @@
         <v>147844</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>131025</v>
+        <v>129958</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>165570</v>
+        <v>165047</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5383926203660939</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4771439919718249</v>
+        <v>0.4732578293012119</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6029464676410775</v>
+        <v>0.6010425081693067</v>
       </c>
     </row>
     <row r="30">
@@ -4727,19 +4727,19 @@
         <v>36425</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26215</v>
+        <v>25938</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>48678</v>
+        <v>49331</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2281053014149002</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1641662239015072</v>
+        <v>0.1624285241887999</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.30483426347349</v>
+        <v>0.3089244845355781</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>27</v>
@@ -4748,19 +4748,19 @@
         <v>30257</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>21340</v>
+        <v>21330</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>41698</v>
+        <v>41684</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2632966431490277</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1856977488670936</v>
+        <v>0.1856139012431191</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3628545011200303</v>
+        <v>0.3627356853305747</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>60</v>
@@ -4769,19 +4769,19 @@
         <v>66682</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>52936</v>
+        <v>51860</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>83432</v>
+        <v>82367</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.242832256242703</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1927725138540969</v>
+        <v>0.1888543286223761</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3038305686503552</v>
+        <v>0.2999487285820804</v>
       </c>
     </row>
     <row r="31">
@@ -4798,19 +4798,19 @@
         <v>17075</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10141</v>
+        <v>10438</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25942</v>
+        <v>26707</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1069266918406879</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06350833870925576</v>
+        <v>0.06536828087019228</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1624571092941199</v>
+        <v>0.1672472178264327</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -4819,19 +4819,19 @@
         <v>9556</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4381</v>
+        <v>4313</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17359</v>
+        <v>16647</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08315726736740427</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03812495555665089</v>
+        <v>0.03753504323762398</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1510566755853584</v>
+        <v>0.1448638923590156</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>25</v>
@@ -4840,19 +4840,19 @@
         <v>26631</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18078</v>
+        <v>18309</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>39295</v>
+        <v>38772</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09697960760770877</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06583358189679323</v>
+        <v>0.06667470946229898</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.143099238397966</v>
+        <v>0.1411938417997251</v>
       </c>
     </row>
     <row r="32">
@@ -5115,19 +5115,19 @@
         <v>15002</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9351</v>
+        <v>9303</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22603</v>
+        <v>22853</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1100350973497065</v>
+        <v>0.1100350973497066</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06858618685590444</v>
+        <v>0.06823934737193454</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1657935379616059</v>
+        <v>0.1676213970554138</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -5136,19 +5136,19 @@
         <v>7212</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3757</v>
+        <v>3954</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11847</v>
+        <v>12317</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08680496055461463</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04521245957936079</v>
+        <v>0.04758897405885148</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.142589436667917</v>
+        <v>0.1482370422455306</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -5157,19 +5157,19 @@
         <v>22214</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14933</v>
+        <v>15046</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31576</v>
+        <v>31757</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1012386897310462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06805645912645074</v>
+        <v>0.06857266828116514</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1439036253142021</v>
+        <v>0.1447301225584144</v>
       </c>
     </row>
     <row r="5">
@@ -5186,19 +5186,19 @@
         <v>66362</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56300</v>
+        <v>55854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77184</v>
+        <v>76157</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4867600490519272</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4129520506423136</v>
+        <v>0.4096793350654661</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5661329506309527</v>
+        <v>0.5586036642451353</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -5207,19 +5207,19 @@
         <v>26163</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19917</v>
+        <v>20074</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33878</v>
+        <v>33981</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3148872542924447</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2397049831545519</v>
+        <v>0.2416019123416388</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4077381331828377</v>
+        <v>0.4089795147818766</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -5228,19 +5228,19 @@
         <v>92526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80216</v>
+        <v>80183</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>105262</v>
+        <v>105733</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4216780749508452</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3655782032194647</v>
+        <v>0.3654276012168056</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4797217581624197</v>
+        <v>0.4818690112851742</v>
       </c>
     </row>
     <row r="6">
@@ -5304,19 +5304,19 @@
         <v>84087</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73191</v>
+        <v>73767</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93466</v>
+        <v>94497</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6167642704432682</v>
+        <v>0.6167642704432683</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.536845501633882</v>
+        <v>0.5410715093009537</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6855634771562037</v>
+        <v>0.6931252125599641</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>97</v>
@@ -5325,19 +5325,19 @@
         <v>59497</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52311</v>
+        <v>52604</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65433</v>
+        <v>65330</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7160672233531659</v>
+        <v>0.7160672233531657</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6295807444057994</v>
+        <v>0.6331172642031786</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7875128142144652</v>
+        <v>0.7862796356371233</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>200</v>
@@ -5346,19 +5346,19 @@
         <v>143583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131780</v>
+        <v>131524</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155248</v>
+        <v>155780</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6543666857556332</v>
+        <v>0.6543666857556331</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6005753811933591</v>
+        <v>0.5994066839165922</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7075300260904631</v>
+        <v>0.7099545708526634</v>
       </c>
     </row>
     <row r="8">
@@ -5379,19 +5379,19 @@
         <v>12849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6966</v>
+        <v>7214</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20501</v>
+        <v>20562</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1494552297085304</v>
+        <v>0.1494552297085303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08102200948430971</v>
+        <v>0.08390352005883772</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2384592054130872</v>
+        <v>0.2391707673967493</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -5400,19 +5400,19 @@
         <v>5091</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2455</v>
+        <v>2304</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9295</v>
+        <v>8800</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0925533544185633</v>
+        <v>0.09255335441856331</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04463369196891996</v>
+        <v>0.04189141979164963</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1689618948634055</v>
+        <v>0.1599719885275036</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -5421,19 +5421,19 @@
         <v>17941</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11902</v>
+        <v>11435</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26923</v>
+        <v>26619</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1272525973052805</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08442211096790883</v>
+        <v>0.08110662257589639</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1909662550965515</v>
+        <v>0.1888046765478278</v>
       </c>
     </row>
     <row r="9">
@@ -5450,19 +5450,19 @@
         <v>36194</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>28634</v>
+        <v>28632</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>44778</v>
+        <v>44788</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4209935366933708</v>
+        <v>0.4209935366933706</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3330582001158996</v>
+        <v>0.3330268861388229</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5208370984964612</v>
+        <v>0.5209443467885919</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -5471,19 +5471,19 @@
         <v>21006</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15480</v>
+        <v>15403</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26705</v>
+        <v>26299</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3818532733213442</v>
+        <v>0.3818532733213443</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.281401729458675</v>
+        <v>0.2800003135974339</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4854429587227365</v>
+        <v>0.4780768622810746</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>78</v>
@@ -5492,19 +5492,19 @@
         <v>57201</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47857</v>
+        <v>46509</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>67978</v>
+        <v>66583</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4057213356387121</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3394461644576141</v>
+        <v>0.3298896396218907</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.482167731128876</v>
+        <v>0.4722698051126514</v>
       </c>
     </row>
     <row r="10">
@@ -5568,19 +5568,19 @@
         <v>55510</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46893</v>
+        <v>47382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63068</v>
+        <v>63067</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6456608426871441</v>
+        <v>0.645660842687144</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5454370350678346</v>
+        <v>0.5511235712623755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7335738033471773</v>
+        <v>0.7335591793878952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -5589,19 +5589,19 @@
         <v>39801</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34542</v>
+        <v>34657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44682</v>
+        <v>44734</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7235022598437373</v>
+        <v>0.7235022598437375</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6279048787537644</v>
+        <v>0.6299967655571251</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8122412987921687</v>
+        <v>0.813191228568894</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>134</v>
@@ -5610,19 +5610,19 @@
         <v>95311</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>85606</v>
+        <v>85514</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>104464</v>
+        <v>104930</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6760339079344436</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6071995369076205</v>
+        <v>0.6065457881756207</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7409576573650556</v>
+        <v>0.7442618894161281</v>
       </c>
     </row>
     <row r="12">
@@ -5643,19 +5643,19 @@
         <v>15628</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9697</v>
+        <v>9774</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22765</v>
+        <v>22664</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1709186983947832</v>
+        <v>0.1709186983947831</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1060458354523412</v>
+        <v>0.1068902464196685</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.248965755999069</v>
+        <v>0.2478601164144401</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -5664,19 +5664,19 @@
         <v>1980</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5387</v>
+        <v>5170</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.0549686277300335</v>
+        <v>0.05496862773003349</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01699196855184158</v>
+        <v>0.01718158037158886</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1495424797350641</v>
+        <v>0.1435433487200349</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>22</v>
@@ -5685,19 +5685,19 @@
         <v>17608</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11690</v>
+        <v>11218</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26117</v>
+        <v>25189</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1381506607144081</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09171326335386699</v>
+        <v>0.08801285400117877</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.204903512775443</v>
+        <v>0.1976271639081176</v>
       </c>
     </row>
     <row r="13">
@@ -5714,19 +5714,19 @@
         <v>38756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30974</v>
+        <v>31027</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47252</v>
+        <v>48202</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4238502335772504</v>
+        <v>0.4238502335772503</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.338745178527239</v>
+        <v>0.3393180544574627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.516767137178233</v>
+        <v>0.5271525851223402</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -5735,19 +5735,19 @@
         <v>14910</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10449</v>
+        <v>10309</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19504</v>
+        <v>19643</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.413949884652321</v>
+        <v>0.4139498846523209</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2900959552754356</v>
+        <v>0.2862104493032198</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5414638892151112</v>
+        <v>0.5453465330722344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -5756,19 +5756,19 @@
         <v>53666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44964</v>
+        <v>43346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63083</v>
+        <v>63198</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4210523482050288</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3527749075149798</v>
+        <v>0.3400843284467781</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4949282869184076</v>
+        <v>0.4958355287413282</v>
       </c>
     </row>
     <row r="14">
@@ -5788,16 +5788,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5478</v>
+        <v>6595</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01939318533705797</v>
+        <v>0.01939318533705796</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05990430587191811</v>
+        <v>0.07213045870325414</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6488</v>
+        <v>5914</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01391257955368948</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05090586031025073</v>
+        <v>0.0463987463619937</v>
       </c>
     </row>
     <row r="15">
@@ -5848,19 +5848,19 @@
         <v>57527</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>50215</v>
+        <v>48399</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>65639</v>
+        <v>65115</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6291393587144767</v>
+        <v>0.6291393587144763</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.549174430184529</v>
+        <v>0.5293135972095304</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7178511519792978</v>
+        <v>0.7121189396038633</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -5869,19 +5869,19 @@
         <v>26820</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22360</v>
+        <v>22397</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>30517</v>
+        <v>30293</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7445833246927149</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6207527629652784</v>
+        <v>0.621791327399757</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8472350835493171</v>
+        <v>0.8409955245620174</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>117</v>
@@ -5890,19 +5890,19 @@
         <v>84347</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>74663</v>
+        <v>75231</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>92708</v>
+        <v>93850</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.661764368819769</v>
+        <v>0.6617643688197691</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5857840320921696</v>
+        <v>0.5902448779686602</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7273640819785159</v>
+        <v>0.7363198033436896</v>
       </c>
     </row>
     <row r="16">
@@ -5923,19 +5923,19 @@
         <v>24917</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17490</v>
+        <v>17791</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34628</v>
+        <v>34048</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1432911852343655</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1005805710482533</v>
+        <v>0.1023112494063297</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1991357579639963</v>
+        <v>0.1958010771656415</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -5944,19 +5944,19 @@
         <v>8491</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5060</v>
+        <v>4463</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13378</v>
+        <v>13751</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09079029773068063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05410978058434941</v>
+        <v>0.04772087303184697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1430439993647963</v>
+        <v>0.1470305831283048</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -5965,19 +5965,19 @@
         <v>33408</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24602</v>
+        <v>25370</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43723</v>
+        <v>44770</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1249302698231747</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09199824451480219</v>
+        <v>0.09487321302479813</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1635019686179223</v>
+        <v>0.1674187810356383</v>
       </c>
     </row>
     <row r="17">
@@ -5994,19 +5994,19 @@
         <v>74293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62506</v>
+        <v>63037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86282</v>
+        <v>85656</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4272333302521796</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3594534276712071</v>
+        <v>0.3625035671559875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4961788922768479</v>
+        <v>0.4925765642130843</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -6015,19 +6015,19 @@
         <v>33675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26887</v>
+        <v>26953</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40511</v>
+        <v>40424</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3600808081327123</v>
+        <v>0.3600808081327122</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2874987693037928</v>
+        <v>0.288202630237812</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4331675332457193</v>
+        <v>0.4322396202124056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>152</v>
@@ -6036,19 +6036,19 @@
         <v>107968</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>94132</v>
+        <v>95261</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>122427</v>
+        <v>121676</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4037483600562546</v>
+        <v>0.4037483600562545</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3520070699658018</v>
+        <v>0.3562322194950725</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4578194408570732</v>
+        <v>0.4550089415457667</v>
       </c>
     </row>
     <row r="18">
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3472</v>
+        <v>3917</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00628354403207279</v>
@@ -6077,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.019966468587845</v>
+        <v>0.02252345133869084</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -6102,16 +6102,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3823</v>
+        <v>3838</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.004086026505397006</v>
+        <v>0.004086026505397005</v>
       </c>
       <c r="V18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01429514761766666</v>
+        <v>0.01435230938830532</v>
       </c>
     </row>
     <row r="19">
@@ -6128,19 +6128,19 @@
         <v>115020</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>104085</v>
+        <v>104016</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127529</v>
+        <v>125997</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6614394853570209</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5985584174513852</v>
+        <v>0.5981624438102207</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7333763255014065</v>
+        <v>0.7245681262193362</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>106</v>
@@ -6149,19 +6149,19 @@
         <v>61526</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54572</v>
+        <v>54337</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67809</v>
+        <v>67929</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6578732995803419</v>
+        <v>0.6578732995803418</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5835180599564267</v>
+        <v>0.5810062521509816</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7250593415806299</v>
+        <v>0.7263443168707479</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>250</v>
@@ -6170,19 +6170,19 @@
         <v>176545</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>163302</v>
+        <v>161821</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>190183</v>
+        <v>189731</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6601922981474408</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6106719323675228</v>
+        <v>0.6051341908649852</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7111929605979833</v>
+        <v>0.7095012260207437</v>
       </c>
     </row>
     <row r="20">
@@ -6203,19 +6203,19 @@
         <v>7751</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3748</v>
+        <v>3762</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13860</v>
+        <v>13537</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1062074650769586</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05135476750476566</v>
+        <v>0.0515456822550486</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1899190375987613</v>
+        <v>0.1854910994954976</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -6224,19 +6224,19 @@
         <v>17516</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12237</v>
+        <v>12288</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24201</v>
+        <v>24118</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1459013449405531</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1019322434467227</v>
+        <v>0.1023581655943227</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2015862517333885</v>
+        <v>0.2008976254871264</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -6245,19 +6245,19 @@
         <v>25267</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18414</v>
+        <v>17871</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32912</v>
+        <v>33264</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1308945104910106</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09539310444939064</v>
+        <v>0.09258250175806441</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.170502459575091</v>
+        <v>0.172325266006556</v>
       </c>
     </row>
     <row r="21">
@@ -6274,19 +6274,19 @@
         <v>26941</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19531</v>
+        <v>19861</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34305</v>
+        <v>34089</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.369172871258777</v>
+        <v>0.3691728712587771</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2676231216695257</v>
+        <v>0.2721566455624047</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4700784241288239</v>
+        <v>0.4671197876290094</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>70</v>
@@ -6295,19 +6295,19 @@
         <v>38265</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31375</v>
+        <v>31087</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46163</v>
+        <v>46304</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.3187380741618323</v>
+        <v>0.3187380741618321</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2613422674883183</v>
+        <v>0.2589427004193293</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3845235516712983</v>
+        <v>0.3856928518887044</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>107</v>
@@ -6316,19 +6316,19 @@
         <v>65207</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>55456</v>
+        <v>54638</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>76564</v>
+        <v>75782</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3378056647609634</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2872918297244667</v>
+        <v>0.2830522647624912</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3966420391615652</v>
+        <v>0.3925912757920311</v>
       </c>
     </row>
     <row r="22">
@@ -6348,16 +6348,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3123</v>
+        <v>3159</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.008348547011713194</v>
+        <v>0.008348547011713196</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04279364723240837</v>
+        <v>0.04328876077744145</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -6366,19 +6366,19 @@
         <v>2190</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5839</v>
+        <v>5744</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01824294189600789</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005420297875852932</v>
+        <v>0.00606825748488455</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04863350490717935</v>
+        <v>0.04784845875754266</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -6387,19 +6387,19 @@
         <v>2799</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1025</v>
+        <v>769</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6403</v>
+        <v>6288</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01450222553073283</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005311229606626866</v>
+        <v>0.003981425380787056</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03317235719821639</v>
+        <v>0.03257570328961062</v>
       </c>
     </row>
     <row r="23">
@@ -6416,19 +6416,19 @@
         <v>48112</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>40255</v>
+        <v>41256</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>54609</v>
+        <v>55669</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6592700775423471</v>
+        <v>0.659270077542347</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5516061496754111</v>
+        <v>0.565315023948744</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.748289331176574</v>
+        <v>0.7628123157338573</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>149</v>
@@ -6437,19 +6437,19 @@
         <v>85151</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>77679</v>
+        <v>77569</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>92463</v>
+        <v>92636</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7092751861025018</v>
+        <v>0.7092751861025016</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6470377946125608</v>
+        <v>0.6461238640969903</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7701867722836088</v>
+        <v>0.7716257061260262</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>206</v>
@@ -6458,19 +6458,19 @@
         <v>133263</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>122074</v>
+        <v>122198</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>142042</v>
+        <v>143253</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6903700453510206</v>
+        <v>0.6903700453510205</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6324081876990864</v>
+        <v>0.6330496694425032</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7358519005330717</v>
+        <v>0.7421230112195651</v>
       </c>
     </row>
     <row r="24">
@@ -6504,19 +6504,19 @@
         <v>20437</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14601</v>
+        <v>14597</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>27934</v>
+        <v>27470</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1545623837601866</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1104273764120795</v>
+        <v>0.1103997491776608</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2112655826809249</v>
+        <v>0.2077554059886243</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>33</v>
@@ -6525,19 +6525,19 @@
         <v>20437</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14179</v>
+        <v>14587</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>27380</v>
+        <v>27582</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1501898120323258</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.104201374655209</v>
+        <v>0.107198057421326</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2012140610051608</v>
+        <v>0.2026997015055088</v>
       </c>
     </row>
     <row r="25">
@@ -6554,19 +6554,19 @@
         <v>1615</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3112</v>
+        <v>3097</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4193762345451281</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1163030852194154</v>
+        <v>0.1135482451768414</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8082077999925277</v>
+        <v>0.8044048953334266</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>100</v>
@@ -6575,19 +6575,19 @@
         <v>57815</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49183</v>
+        <v>49596</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66546</v>
+        <v>66436</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4372469939800285</v>
+        <v>0.4372469939800286</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3719665996398732</v>
+        <v>0.3750898389500253</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5032794002158092</v>
+        <v>0.5024521967010648</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>103</v>
@@ -6596,19 +6596,19 @@
         <v>59429</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50516</v>
+        <v>50755</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68585</v>
+        <v>69029</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4367414299769417</v>
+        <v>0.4367414299769416</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3712408760981708</v>
+        <v>0.3729950994459836</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5040243492391052</v>
+        <v>0.5072869756108762</v>
       </c>
     </row>
     <row r="26">
@@ -6672,7 +6672,7 @@
         <v>2825</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>3850</v>
@@ -6681,7 +6681,7 @@
         <v>0.7336638741097022</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2188154496387836</v>
+        <v>0.213655147900459</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -6693,19 +6693,19 @@
         <v>93460</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>85262</v>
+        <v>85219</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>100825</v>
+        <v>100610</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.7068321090343701</v>
+        <v>0.70683210903437</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6448286654664581</v>
+        <v>0.6445020800875446</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7625352627815624</v>
+        <v>0.7609036051571174</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>160</v>
@@ -6714,19 +6714,19 @@
         <v>96285</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>87581</v>
+        <v>87167</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>104175</v>
+        <v>103575</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.7075911799966751</v>
+        <v>0.7075911799966749</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6436279213165169</v>
+        <v>0.6405839978165367</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7655729116136746</v>
+        <v>0.7611665524975764</v>
       </c>
     </row>
     <row r="28">
@@ -6747,19 +6747,19 @@
         <v>76147</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>62284</v>
+        <v>61598</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>92595</v>
+        <v>92888</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1349014288745008</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1103416108864764</v>
+        <v>0.1091253246199638</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1640399568444193</v>
+        <v>0.1645590640560382</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>99</v>
@@ -6768,19 +6768,19 @@
         <v>60727</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>50375</v>
+        <v>49446</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>73751</v>
+        <v>72448</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1168021269323993</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09689027595178196</v>
+        <v>0.09510441539208984</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1418506626157996</v>
+        <v>0.1393459083318807</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>186</v>
@@ -6789,19 +6789,19 @@
         <v>136875</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>120646</v>
+        <v>119462</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>156666</v>
+        <v>157819</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1262235622135334</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1112576705187494</v>
+        <v>0.1101654374477799</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1444743487941806</v>
+        <v>0.145538283605875</v>
       </c>
     </row>
     <row r="29">
@@ -6818,19 +6818,19 @@
         <v>244162</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>222626</v>
+        <v>222938</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>264728</v>
+        <v>265651</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4325523748108539</v>
+        <v>0.4325523748108538</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3944009673101245</v>
+        <v>0.3949535742593667</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4689878688955229</v>
+        <v>0.4706233511009205</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>331</v>
@@ -6839,19 +6839,19 @@
         <v>191835</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>175237</v>
+        <v>175995</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>208146</v>
+        <v>209639</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3689726662205486</v>
+        <v>0.3689726662205485</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3370483956401954</v>
+        <v>0.3385064676920207</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4003444396027871</v>
+        <v>0.4032164070222715</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>639</v>
@@ -6860,19 +6860,19 @@
         <v>435997</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>409002</v>
+        <v>407629</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>465302</v>
+        <v>463192</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4020685343149715</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3771747838423833</v>
+        <v>0.3759084666588748</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4290931146371754</v>
+        <v>0.4271474381895248</v>
       </c>
     </row>
     <row r="30">
@@ -6889,19 +6889,19 @@
         <v>3475</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1214</v>
+        <v>1151</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8676</v>
+        <v>8533</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.006156589295539983</v>
+        <v>0.006156589295539982</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002150829062313048</v>
+        <v>0.00203905881411554</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01537106444737062</v>
+        <v>0.01511715894899271</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -6910,19 +6910,19 @@
         <v>2190</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5334</v>
+        <v>5846</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.004212424879542687</v>
+        <v>0.004212424879542686</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001385941064354655</v>
+        <v>0.001378616078924366</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01025915690130268</v>
+        <v>0.01124351294624533</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -6931,19 +6931,19 @@
         <v>5665</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2721</v>
+        <v>2348</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11087</v>
+        <v>10774</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.005224442872269515</v>
+        <v>0.005224442872269514</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002508987010046553</v>
+        <v>0.002165347729795851</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01022409392804148</v>
+        <v>0.009935768173982401</v>
       </c>
     </row>
     <row r="31">
@@ -6960,19 +6960,19 @@
         <v>363080</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>341699</v>
+        <v>343013</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>383160</v>
+        <v>383738</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.6432256546986675</v>
+        <v>0.6432256546986673</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6053485463967311</v>
+        <v>0.6076753410532055</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6787993332311691</v>
+        <v>0.6798231309081807</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>615</v>
@@ -6981,19 +6981,19 @@
         <v>366253</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>349909</v>
+        <v>349959</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>379882</v>
+        <v>382068</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.7044447332592517</v>
+        <v>0.7044447332592515</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.673009339025975</v>
+        <v>0.6731051665625397</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7306585428112033</v>
+        <v>0.7348630056353019</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1067</v>
@@ -7002,19 +7002,19 @@
         <v>729332</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>702523</v>
+        <v>701277</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>756140</v>
+        <v>756270</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.6725776707352791</v>
+        <v>0.672577670735279</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6478546956323107</v>
+        <v>0.6467053845011355</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6972991680773383</v>
+        <v>0.6974189945572282</v>
       </c>
     </row>
     <row r="32">
